--- a/2.0.xlsx
+++ b/2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gokul\Desktop\FullStack-Developer-Version2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26583183-4E68-40AB-B1AA-F7E6E89AC70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5FC7D9-BB5F-4BA0-8105-3A2AF17ED45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{3F8D9FEF-90EB-4A24-88B6-E2D1BE0227DC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="3" xr2:uid="{3F8D9FEF-90EB-4A24-88B6-E2D1BE0227DC}"/>
   </bookViews>
   <sheets>
     <sheet name="2.0" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Amazon" sheetId="6" r:id="rId3"/>
     <sheet name="Python" sheetId="7" r:id="rId4"/>
     <sheet name="Interview" sheetId="8" r:id="rId5"/>
+    <sheet name="Python - Interview Questions" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>100 days challenge</t>
   </si>
@@ -169,6 +170,42 @@
   </si>
   <si>
     <t>Questions asked</t>
+  </si>
+  <si>
+    <t>Certainly, here's a tabular comparison of tuples, lists, dictionaries, and sets based on key characteristics:</t>
+  </si>
+  <si>
+    <t>| Characteristic            | Tuple                 | List                 | Dictionary             | Set                     |</t>
+  </si>
+  <si>
+    <t>|---------------------------|-----------------------|----------------------|------------------------|-------------------------|</t>
+  </si>
+  <si>
+    <t>| **Mutability**            | Immutable             | Mutable              | Mutable                | Mutable                 |</t>
+  </si>
+  <si>
+    <t>| **Ordered**               | Ordered               | Ordered              | Unordered (Python 3.7+)| Unordered               |</t>
+  </si>
+  <si>
+    <t>| **Duplicates Allowed**    | Yes                   | Yes                  | No                     | No (elements are unique)|</t>
+  </si>
+  <si>
+    <t>| **Indexing**              | Yes                   | Yes                  | No (access by key)     | No                      |</t>
+  </si>
+  <si>
+    <t>| **Syntax**                | `(item1, item2, ...)` | `[item1, item2, ...]`| `{'key1': value1, ...}`| `{item1, item2, ...}`  |</t>
+  </si>
+  <si>
+    <t>| **Access by Index**       | Yes                   | Yes                  | No (access by key)     | No                      |</t>
+  </si>
+  <si>
+    <t>| **Modification**          | Immutable (cannot change elements) | Mutable (add, remove, change elements) | Mutable (add, remove, change key-value pairs) | Mutable (add, remove elements) |</t>
+  </si>
+  <si>
+    <t>| **Use Case**              | Used for immutable collections of items. | Used for mutable collections of items. | Used for key-value pairs (associative arrays). | Used for storing unique items, checking membership, and performing set operations. |</t>
+  </si>
+  <si>
+    <t>Keep in mind that the choice of which data structure to use depends on the specific requirements of your task. Each has its own advantages and use cases, and the selection should be based on factors such as mutability, ordering, and the nature of the data you need to store or manipulate.</t>
   </si>
 </sst>
 </file>
@@ -256,7 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,7 +640,7 @@
       </c>
       <c r="C2" s="2">
         <f ca="1">NOW()</f>
-        <v>45183.559238078706</v>
+        <v>45194.838895601853</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -770,9 +807,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA66444-5E58-42EC-89BD-EF1920D613C1}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -814,6 +853,66 @@
         <v>29</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -823,7 +922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0751D27A-1451-47A2-90E6-AFB8620F8731}">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -871,4 +970,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231A214F-29B5-4740-9B12-C45E531B9767}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>